--- a/Assets/Excel/003_Weapon.xlsx
+++ b/Assets/Excel/003_Weapon.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="WeaponDataInUnity" sheetId="4" r:id="rId1"/>
@@ -807,8 +807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -847,25 +847,25 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="4">
-        <v>0</v>
+        <v>301</v>
       </c>
       <c r="C2" s="4">
-        <v>0</v>
+        <v>401</v>
       </c>
       <c r="D2" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F2" s="4">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" s="4">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H2" s="4">
         <v>0</v>
@@ -879,25 +879,25 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B3" s="4">
-        <v>0</v>
+        <v>302</v>
       </c>
       <c r="C3" s="4">
-        <v>0</v>
+        <v>402</v>
       </c>
       <c r="D3" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E3" s="4">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F3" s="4">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G3" s="4">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H3" s="4">
         <v>0</v>
@@ -911,25 +911,25 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B4" s="4">
-        <v>0</v>
+        <v>303</v>
       </c>
       <c r="C4" s="4">
-        <v>0</v>
+        <v>403</v>
       </c>
       <c r="D4" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E4" s="4">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F4" s="4">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G4" s="4">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H4" s="4">
         <v>0</v>
@@ -1208,7 +1208,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>

--- a/Assets/Excel/003_Weapon.xlsx
+++ b/Assets/Excel/003_Weapon.xlsx
@@ -808,7 +808,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -943,7 +943,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B5" s="4">
         <v>0</v>
@@ -975,7 +975,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B6" s="4">
         <v>0</v>
@@ -1007,7 +1007,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="4">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B7" s="4">
         <v>0</v>
@@ -1039,7 +1039,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="4">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B8" s="4">
         <v>0</v>
@@ -1071,7 +1071,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="4">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B9" s="4">
         <v>0</v>
@@ -1103,7 +1103,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="4">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B10" s="4">
         <v>0</v>
@@ -1135,7 +1135,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B11" s="4">
         <v>0</v>
@@ -1167,7 +1167,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="4">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B12" s="4">
         <v>0</v>

--- a/Assets/Excel/003_Weapon.xlsx
+++ b/Assets/Excel/003_Weapon.xlsx
@@ -808,7 +808,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -850,10 +850,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4">
-        <v>301</v>
+        <v>10301</v>
       </c>
       <c r="C2" s="4">
-        <v>401</v>
+        <v>10401</v>
       </c>
       <c r="D2" s="4">
         <v>1</v>
@@ -882,10 +882,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="4">
-        <v>302</v>
+        <v>10302</v>
       </c>
       <c r="C3" s="4">
-        <v>402</v>
+        <v>10402</v>
       </c>
       <c r="D3" s="4">
         <v>2</v>
@@ -914,10 +914,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4">
-        <v>303</v>
+        <v>10303</v>
       </c>
       <c r="C4" s="4">
-        <v>403</v>
+        <v>10403</v>
       </c>
       <c r="D4" s="4">
         <v>3</v>

--- a/Assets/Excel/003_Weapon.xlsx
+++ b/Assets/Excel/003_Weapon.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="WeaponDataInUnity" sheetId="4" r:id="rId1"/>
@@ -1056,8 +1056,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5" defaultRowHeight="16.5"/>
@@ -1123,10 +1123,10 @@
         <v>5</v>
       </c>
       <c r="F2" s="12">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="G2" s="12">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="H2" s="12">
         <v>0</v>
@@ -1155,10 +1155,10 @@
         <v>10</v>
       </c>
       <c r="F3" s="12">
-        <v>150</v>
+        <v>1</v>
       </c>
       <c r="G3" s="12">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H3" s="12">
         <v>0</v>
@@ -1187,10 +1187,10 @@
         <v>50</v>
       </c>
       <c r="F4" s="12">
-        <v>200</v>
+        <v>2</v>
       </c>
       <c r="G4" s="12">
-        <v>150</v>
+        <v>2</v>
       </c>
       <c r="H4" s="12">
         <v>0</v>
@@ -1219,10 +1219,10 @@
         <v>30</v>
       </c>
       <c r="F5" s="12">
-        <v>150</v>
+        <v>1</v>
       </c>
       <c r="G5" s="12">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H5" s="12">
         <v>0</v>
@@ -1251,10 +1251,10 @@
         <v>10</v>
       </c>
       <c r="F6" s="12">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="G6" s="12">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="H6" s="12">
         <v>0</v>
@@ -1283,10 +1283,10 @@
         <v>100</v>
       </c>
       <c r="F7" s="12">
-        <v>300</v>
+        <v>3</v>
       </c>
       <c r="G7" s="12">
-        <v>250</v>
+        <v>3</v>
       </c>
       <c r="H7" s="12">
         <v>0</v>
@@ -1315,10 +1315,10 @@
         <v>5</v>
       </c>
       <c r="F8" s="12">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="G8" s="12">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="H8" s="12">
         <v>0</v>
@@ -1341,8 +1341,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.75" defaultRowHeight="16.5"/>
@@ -1627,7 +1627,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.75" defaultRowHeight="15.75"/>

--- a/Assets/Excel/003_Weapon.xlsx
+++ b/Assets/Excel/003_Weapon.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="WeaponDataInUnity" sheetId="4" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="150">
   <si>
     <t>int</t>
   </si>
@@ -150,15 +150,6 @@
   </si>
   <si>
     <t>設定發射出去的子彈造成的傷害</t>
-  </si>
-  <si>
-    <t>設定攻擊頻率 (百分位來顯示，100=1秒)
-目前是秒數/次數</t>
-  </si>
-  <si>
-    <t>設定攻擊頻率上限
-目前是秒數/次數
-有一些道具是提升攻擊頻率，所以要設一個上限值</t>
   </si>
   <si>
     <t>讀取Buff表ID
@@ -523,6 +514,65 @@
   </si>
   <si>
     <t>彈射子彈</t>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_Weaponicon</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器icon</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>解鎖武器條件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>n_UnockParam</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>n_Unlcoktype</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>解鎖參數</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>n_Display</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否顯示</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>設定攻擊頻率 (百分位來顯示，100=1秒)
+目前是秒數/次數</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>設定攻擊頻率上限  (百分位來顯示，100=1秒)
+目前是秒數/次數
+有一些道具是提升攻擊頻率，所以要設一個上限值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1056,8 +1106,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5" defaultRowHeight="16.5"/>
@@ -1342,7 +1392,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I8"/>
+      <selection activeCell="G15" sqref="D15:G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.75" defaultRowHeight="16.5"/>
@@ -1365,31 +1415,31 @@
         <v>2</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C1" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="E1" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="E1" s="18" t="s">
+      <c r="F1" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="H1" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="I1" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="J1" s="18" t="s">
         <v>54</v>
-      </c>
-      <c r="I1" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="J1" s="18" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -1397,13 +1447,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C2" s="20">
         <v>0</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E2" s="20">
         <v>0</v>
@@ -1429,13 +1479,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C3" s="20">
         <v>0</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E3" s="20">
         <v>1</v>
@@ -1461,13 +1511,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C4" s="20">
         <v>0</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E4" s="20">
         <v>0</v>
@@ -1493,13 +1543,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E5" s="20">
         <v>0</v>
@@ -1525,13 +1575,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C6" s="20">
         <v>2</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E6" s="20">
         <v>0</v>
@@ -1557,13 +1607,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E7" s="20">
         <v>0</v>
@@ -1589,13 +1639,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C8" s="20">
         <v>0</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E8" s="20">
         <v>0</v>
@@ -1624,29 +1674,32 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.75" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="5" style="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.25" style="17" customWidth="1"/>
-    <col min="3" max="3" width="14.625" style="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.125" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.625" style="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.375" style="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.625" style="17" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15" style="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.875" style="17" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.125" style="17" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.625" style="17" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="15.75" style="17"/>
+    <col min="3" max="3" width="12.75" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.625" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.125" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.625" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.375" style="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.625" style="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15" style="17" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.875" style="17" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.125" style="17" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.625" style="17" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.375" style="17" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.375" style="17" customWidth="1"/>
+    <col min="16" max="16384" width="15.75" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:15">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -1654,7 +1707,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="D1" s="16" t="s">
         <v>0</v>
@@ -1680,8 +1733,20 @@
       <c r="K1" s="16" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="N1" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="O1" s="16" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="18" t="s">
         <v>2</v>
       </c>
@@ -1689,327 +1754,421 @@
         <v>1</v>
       </c>
       <c r="C2" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="D2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="E2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="F2" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="G2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="H2" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="I2" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="18" t="s">
+      <c r="J2" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="K2" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="18" t="s">
+      <c r="L2" s="18" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="M2" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="N2" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="O2" s="18" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="19" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C3" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="D3" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="E3" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="F3" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="G3" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="H3" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="19" t="s">
+      <c r="I3" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="19" t="s">
+      <c r="J3" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="19" t="s">
+      <c r="K3" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="19" t="s">
+      <c r="L3" s="19" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="M3" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="N3" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="O3" s="19" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="20">
         <v>1</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="C4" s="20">
+        <v>77</v>
+      </c>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20">
         <f>A4+302000</f>
         <v>302001</v>
       </c>
-      <c r="D4" s="20">
-        <f>C4+1000</f>
+      <c r="E4" s="20">
+        <f>D4+1000</f>
         <v>303001</v>
       </c>
-      <c r="E4" s="20">
+      <c r="F4" s="20">
         <v>1</v>
       </c>
-      <c r="F4" s="20">
+      <c r="G4" s="20">
         <v>5</v>
       </c>
-      <c r="G4" s="20">
+      <c r="H4" s="20">
         <v>100</v>
       </c>
-      <c r="H4" s="20">
+      <c r="I4" s="20">
         <v>50</v>
       </c>
-      <c r="I4" s="20">
-        <v>0</v>
-      </c>
       <c r="J4" s="20">
+        <v>0</v>
+      </c>
+      <c r="K4" s="20">
         <v>1</v>
       </c>
-      <c r="K4" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="L4" s="20">
+        <v>0</v>
+      </c>
+      <c r="M4" s="20">
+        <v>0</v>
+      </c>
+      <c r="N4" s="20">
+        <v>0</v>
+      </c>
+      <c r="O4" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="20">
         <f>A4+1</f>
         <v>2</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="C5" s="20">
-        <f t="shared" ref="C5:C10" si="0">A5+302000</f>
+        <v>78</v>
+      </c>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20">
+        <f t="shared" ref="D5:D10" si="0">A5+302000</f>
         <v>302002</v>
       </c>
-      <c r="D5" s="20">
-        <f t="shared" ref="D5:D10" si="1">C5+1000</f>
+      <c r="E5" s="20">
+        <f t="shared" ref="E5:E10" si="1">D5+1000</f>
         <v>303002</v>
       </c>
-      <c r="E5" s="20">
+      <c r="F5" s="20">
         <v>2</v>
       </c>
-      <c r="F5" s="20">
+      <c r="G5" s="20">
         <v>10</v>
       </c>
-      <c r="G5" s="20">
+      <c r="H5" s="20">
         <v>150</v>
       </c>
-      <c r="H5" s="20">
+      <c r="I5" s="20">
         <v>100</v>
       </c>
-      <c r="I5" s="20">
-        <v>0</v>
-      </c>
       <c r="J5" s="20">
+        <v>0</v>
+      </c>
+      <c r="K5" s="20">
         <v>2</v>
       </c>
-      <c r="K5" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="L5" s="20">
+        <v>0</v>
+      </c>
+      <c r="M5" s="20">
+        <v>0</v>
+      </c>
+      <c r="N5" s="20">
+        <v>0</v>
+      </c>
+      <c r="O5" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="20">
         <f t="shared" ref="A6:A7" si="2">A5+1</f>
         <v>3</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="C6" s="20">
+        <v>79</v>
+      </c>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20">
         <f t="shared" si="0"/>
         <v>302003</v>
       </c>
-      <c r="D6" s="20">
+      <c r="E6" s="20">
         <f t="shared" si="1"/>
         <v>303003</v>
       </c>
-      <c r="E6" s="20">
+      <c r="F6" s="20">
         <v>3</v>
       </c>
-      <c r="F6" s="20">
+      <c r="G6" s="20">
         <v>50</v>
       </c>
-      <c r="G6" s="20">
+      <c r="H6" s="20">
         <v>200</v>
       </c>
-      <c r="H6" s="20">
+      <c r="I6" s="20">
         <v>150</v>
       </c>
-      <c r="I6" s="20">
-        <v>0</v>
-      </c>
       <c r="J6" s="20">
+        <v>0</v>
+      </c>
+      <c r="K6" s="20">
         <v>3</v>
       </c>
-      <c r="K6" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="L6" s="20">
+        <v>0</v>
+      </c>
+      <c r="M6" s="20">
+        <v>0</v>
+      </c>
+      <c r="N6" s="20">
+        <v>0</v>
+      </c>
+      <c r="O6" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="20">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="C7" s="20">
+        <v>87</v>
+      </c>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20">
         <f t="shared" si="0"/>
         <v>302004</v>
       </c>
-      <c r="D7" s="20">
+      <c r="E7" s="20">
         <f t="shared" si="1"/>
         <v>303004</v>
       </c>
-      <c r="E7" s="20">
+      <c r="F7" s="20">
         <v>3</v>
       </c>
-      <c r="F7" s="20">
+      <c r="G7" s="20">
         <v>30</v>
       </c>
-      <c r="G7" s="20">
+      <c r="H7" s="20">
         <v>150</v>
       </c>
-      <c r="H7" s="20">
+      <c r="I7" s="20">
         <v>100</v>
       </c>
-      <c r="I7" s="20">
-        <v>0</v>
-      </c>
       <c r="J7" s="20">
+        <v>0</v>
+      </c>
+      <c r="K7" s="20">
         <v>4</v>
       </c>
-      <c r="K7" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="L7" s="20">
+        <v>0</v>
+      </c>
+      <c r="M7" s="20">
+        <v>0</v>
+      </c>
+      <c r="N7" s="20">
+        <v>0</v>
+      </c>
+      <c r="O7" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="20">
         <v>5</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="C8" s="20">
-        <f t="shared" ref="C8" si="3">A8+302000</f>
+        <v>126</v>
+      </c>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20">
+        <f t="shared" ref="D8" si="3">A8+302000</f>
         <v>302005</v>
       </c>
-      <c r="D8" s="20">
-        <f t="shared" ref="D8" si="4">C8+1000</f>
+      <c r="E8" s="20">
+        <f t="shared" ref="E8" si="4">D8+1000</f>
         <v>303005</v>
       </c>
-      <c r="E8" s="20">
+      <c r="F8" s="20">
         <v>2</v>
       </c>
-      <c r="F8" s="20">
+      <c r="G8" s="20">
         <v>10</v>
       </c>
-      <c r="G8" s="20">
+      <c r="H8" s="20">
         <v>100</v>
       </c>
-      <c r="H8" s="20">
+      <c r="I8" s="20">
         <v>50</v>
       </c>
-      <c r="I8" s="20">
-        <v>0</v>
-      </c>
       <c r="J8" s="20">
+        <v>0</v>
+      </c>
+      <c r="K8" s="20">
         <v>5</v>
       </c>
-      <c r="K8" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="L8" s="20">
+        <v>0</v>
+      </c>
+      <c r="M8" s="20">
+        <v>0</v>
+      </c>
+      <c r="N8" s="20">
+        <v>0</v>
+      </c>
+      <c r="O8" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="20">
         <v>6</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="C9" s="20">
+        <v>124</v>
+      </c>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20">
         <f t="shared" si="0"/>
         <v>302006</v>
       </c>
-      <c r="D9" s="20">
+      <c r="E9" s="20">
         <f t="shared" si="1"/>
         <v>303006</v>
       </c>
-      <c r="E9" s="20">
+      <c r="F9" s="20">
         <v>3</v>
       </c>
-      <c r="F9" s="20">
+      <c r="G9" s="20">
         <v>100</v>
       </c>
-      <c r="G9" s="20">
+      <c r="H9" s="20">
         <v>300</v>
       </c>
-      <c r="H9" s="20">
+      <c r="I9" s="20">
         <v>250</v>
       </c>
-      <c r="I9" s="20">
-        <v>0</v>
-      </c>
       <c r="J9" s="20">
+        <v>0</v>
+      </c>
+      <c r="K9" s="20">
         <v>6</v>
       </c>
-      <c r="K9" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="L9" s="20">
+        <v>0</v>
+      </c>
+      <c r="M9" s="20">
+        <v>0</v>
+      </c>
+      <c r="N9" s="20">
+        <v>0</v>
+      </c>
+      <c r="O9" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="20">
         <v>7</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="C10" s="20">
+        <v>125</v>
+      </c>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20">
         <f t="shared" si="0"/>
         <v>302007</v>
       </c>
-      <c r="D10" s="20">
+      <c r="E10" s="20">
         <f t="shared" si="1"/>
         <v>303007</v>
       </c>
-      <c r="E10" s="20">
+      <c r="F10" s="20">
         <v>2</v>
       </c>
-      <c r="F10" s="20">
+      <c r="G10" s="20">
         <v>5</v>
       </c>
-      <c r="G10" s="20">
+      <c r="H10" s="20">
         <v>100</v>
       </c>
-      <c r="H10" s="20">
+      <c r="I10" s="20">
         <v>50</v>
       </c>
-      <c r="I10" s="20">
-        <v>0</v>
-      </c>
       <c r="J10" s="20">
+        <v>0</v>
+      </c>
+      <c r="K10" s="20">
         <v>7</v>
       </c>
-      <c r="K10" s="20">
+      <c r="L10" s="20">
+        <v>0</v>
+      </c>
+      <c r="M10" s="20">
+        <v>0</v>
+      </c>
+      <c r="N10" s="20">
+        <v>0</v>
+      </c>
+      <c r="O10" s="20">
         <v>0</v>
       </c>
     </row>
@@ -2024,8 +2183,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P10"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5:K6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D24" sqref="D24:D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.125" defaultRowHeight="15.75"/>
@@ -2054,34 +2213,34 @@
         <v>0</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C1" s="16" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E1" s="16" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H1" s="16" t="s">
         <v>0</v>
       </c>
       <c r="I1" s="16" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J1" s="16" t="s">
         <v>0</v>
       </c>
       <c r="K1" s="16" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L1" s="16" t="s">
         <v>0</v>
@@ -2090,7 +2249,7 @@
         <v>0</v>
       </c>
       <c r="N1" s="16" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="O1" s="16" t="s">
         <v>0</v>
@@ -2104,99 +2263,99 @@
         <v>2</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E2" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="H2" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="F2" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="G2" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="H2" s="18" t="s">
+      <c r="I2" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="J2" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="K2" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="L2" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="I2" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="J2" s="18" t="s">
+      <c r="M2" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="K2" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="L2" s="18" t="s">
+      <c r="N2" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="O2" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="M2" s="18" t="s">
+      <c r="P2" s="18" t="s">
         <v>54</v>
-      </c>
-      <c r="N2" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="O2" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="P2" s="18" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="E3" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="C3" s="19" t="s">
+      <c r="F3" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="G3" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="D3" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="E3" s="19" t="s">
+      <c r="H3" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="F3" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="G3" s="19" t="s">
+      <c r="I3" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="J3" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="H3" s="19" t="s">
+      <c r="K3" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="L3" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="I3" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="J3" s="19" t="s">
+      <c r="M3" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="K3" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="L3" s="19" t="s">
+      <c r="N3" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="O3" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="M3" s="19" t="s">
+      <c r="P3" s="19" t="s">
         <v>64</v>
-      </c>
-      <c r="N3" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="O3" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="P3" s="19" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -2204,13 +2363,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C4" s="22">
         <v>1</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E4" s="22">
         <v>0</v>
@@ -2219,13 +2378,13 @@
         <v>0</v>
       </c>
       <c r="G4" s="22" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H4" s="22">
         <v>0</v>
       </c>
       <c r="I4" s="22" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J4" s="22">
         <v>0</v>
@@ -2240,7 +2399,7 @@
         <v>0</v>
       </c>
       <c r="N4" s="22" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="O4" s="22">
         <v>0</v>
@@ -2252,13 +2411,13 @@
         <v>2</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C5" s="22">
         <v>2</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E5" s="22">
         <v>0</v>
@@ -2267,19 +2426,19 @@
         <v>0</v>
       </c>
       <c r="G5" s="22" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H5" s="22">
         <v>1</v>
       </c>
       <c r="I5" s="22" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="J5" s="22">
         <v>3</v>
       </c>
       <c r="K5" s="22" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L5" s="22">
         <v>100</v>
@@ -2288,7 +2447,7 @@
         <v>1</v>
       </c>
       <c r="N5" s="22" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="O5" s="22">
         <v>0</v>
@@ -2300,13 +2459,13 @@
         <v>3</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C6" s="22">
         <v>3</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E6" s="22">
         <v>0</v>
@@ -2315,13 +2474,13 @@
         <v>0</v>
       </c>
       <c r="G6" s="22" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H6" s="22">
         <v>0</v>
       </c>
       <c r="I6" s="22" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J6" s="22">
         <v>0</v>
@@ -2336,7 +2495,7 @@
         <v>2</v>
       </c>
       <c r="N6" s="22" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="O6" s="22">
         <v>50</v>
@@ -2348,28 +2507,28 @@
         <v>4</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C7" s="22">
         <v>4</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F7" s="22" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G7" s="22" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H7" s="22">
         <v>0</v>
       </c>
       <c r="I7" s="22" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J7" s="22">
         <v>0</v>
@@ -2384,7 +2543,7 @@
         <v>3</v>
       </c>
       <c r="N7" s="22" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="O7" s="22">
         <v>1</v>
@@ -2396,28 +2555,28 @@
         <v>5</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C8" s="22">
         <v>5</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E8" s="22">
         <v>2</v>
       </c>
       <c r="F8" s="22" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G8" s="22" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H8" s="22">
         <v>0</v>
       </c>
       <c r="I8" s="22" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J8" s="22">
         <v>0</v>
@@ -2432,7 +2591,7 @@
         <v>1</v>
       </c>
       <c r="N8" s="22" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="O8" s="22">
         <v>0</v>
@@ -2444,28 +2603,28 @@
         <v>6</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C9" s="22">
         <v>6</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E9" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="F9" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="G9" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="H9" s="22">
+        <v>0</v>
+      </c>
+      <c r="I9" s="22" t="s">
         <v>109</v>
-      </c>
-      <c r="F9" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="G9" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="H9" s="22">
-        <v>0</v>
-      </c>
-      <c r="I9" s="22" t="s">
-        <v>111</v>
       </c>
       <c r="J9" s="22">
         <v>0</v>
@@ -2480,7 +2639,7 @@
         <v>5</v>
       </c>
       <c r="N9" s="22" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="O9" s="22">
         <v>0</v>
@@ -2492,13 +2651,13 @@
         <v>7</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C10" s="22">
         <v>7</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E10" s="22">
         <v>0</v>
@@ -2507,13 +2666,13 @@
         <v>0</v>
       </c>
       <c r="G10" s="22" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H10" s="22">
         <v>0</v>
       </c>
       <c r="I10" s="22" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J10" s="22">
         <v>0</v>
@@ -2528,7 +2687,7 @@
         <v>6</v>
       </c>
       <c r="N10" s="22" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="O10" s="22">
         <v>3</v>
@@ -2545,8 +2704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.375" defaultRowHeight="13.5"/>
@@ -2731,7 +2890,7 @@
         <v>18</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>43</v>
+        <v>148</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="54">
@@ -2745,7 +2904,7 @@
         <v>19</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>44</v>
+        <v>149</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="27">
@@ -2759,7 +2918,7 @@
         <v>20</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="27">
@@ -2773,7 +2932,7 @@
         <v>21</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="27">
@@ -2787,12 +2946,12 @@
         <v>22</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="13" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B24" s="13"/>
       <c r="C24" s="13"/>
@@ -2820,10 +2979,10 @@
         <v>2</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="94.5">
@@ -2831,13 +2990,13 @@
         <v>0</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="135">
@@ -2845,13 +3004,13 @@
         <v>0</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2859,13 +3018,13 @@
         <v>0</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="40.5">
@@ -2873,13 +3032,13 @@
         <v>0</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="27">
@@ -2887,13 +3046,13 @@
         <v>0</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="40.5">
@@ -2901,13 +3060,13 @@
         <v>0</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="81">
@@ -2915,13 +3074,13 @@
         <v>0</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D33" s="15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="81">
@@ -2929,13 +3088,13 @@
         <v>0</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D34" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2943,17 +3102,18 @@
         <v>0</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Assets/Excel/003_Weapon.xlsx
+++ b/Assets/Excel/003_Weapon.xlsx
@@ -2704,8 +2704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.375" defaultRowHeight="13.5"/>

--- a/Assets/Excel/003_Weapon.xlsx
+++ b/Assets/Excel/003_Weapon.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="WeaponDataInUnity" sheetId="4" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="155">
   <si>
     <t>int</t>
   </si>
@@ -489,43 +489,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>手槍子彈</t>
-  </si>
-  <si>
-    <t>機槍子彈</t>
-  </si>
-  <si>
-    <t>狙擊槍子彈</t>
-  </si>
-  <si>
-    <t>散彈槍子彈</t>
-  </si>
-  <si>
     <t>30,3</t>
   </si>
   <si>
-    <t>分裂子彈</t>
-  </si>
-  <si>
-    <t>拋物線子彈</t>
-  </si>
-  <si>
     <t>3,1</t>
-  </si>
-  <si>
-    <t>彈射子彈</t>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>s_Weaponicon</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>武器icon</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>int</t>
@@ -572,6 +539,65 @@
     <t>設定攻擊頻率上限  (百分位來顯示，100=1秒)
 目前是秒數/次數
 有一些道具是提升攻擊頻率，所以要設一個上限值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_WeaponTextureName</t>
+  </si>
+  <si>
+    <t>s_WeaponTextureName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器圖片名稱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_WeaponTextureName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器圖片名稱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>顯示介面上的武器圖片</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gun5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gun2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gun3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gun1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gun4</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -731,7 +757,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -798,6 +824,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1104,279 +1136,304 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5" style="26" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" s="18" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="C1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="D1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="E1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="F1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="G1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="H1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="I1" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="J1" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="K1" s="18" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:11">
       <c r="A2" s="12">
         <v>1</v>
       </c>
-      <c r="B2" s="12">
+      <c r="B2" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="C2" s="12">
         <v>302001</v>
       </c>
-      <c r="C2" s="12">
+      <c r="D2" s="12">
         <v>303001</v>
       </c>
-      <c r="D2" s="12">
+      <c r="E2" s="12">
         <v>1</v>
       </c>
-      <c r="E2" s="12">
+      <c r="F2" s="12">
         <v>5</v>
       </c>
-      <c r="F2" s="12">
+      <c r="G2" s="20">
+        <v>100</v>
+      </c>
+      <c r="H2" s="20">
+        <v>50</v>
+      </c>
+      <c r="I2" s="12">
+        <v>0</v>
+      </c>
+      <c r="J2" s="12">
         <v>1</v>
       </c>
-      <c r="G2" s="12">
-        <v>1</v>
-      </c>
-      <c r="H2" s="12">
-        <v>0</v>
-      </c>
-      <c r="I2" s="12">
-        <v>1</v>
-      </c>
-      <c r="J2" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="K2" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="12">
         <v>2</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="C3" s="12">
         <v>302002</v>
       </c>
-      <c r="C3" s="12">
+      <c r="D3" s="12">
         <v>303002</v>
       </c>
-      <c r="D3" s="12">
+      <c r="E3" s="12">
         <v>2</v>
       </c>
-      <c r="E3" s="12">
+      <c r="F3" s="12">
         <v>10</v>
       </c>
-      <c r="F3" s="12">
-        <v>1</v>
-      </c>
-      <c r="G3" s="12">
-        <v>1</v>
-      </c>
-      <c r="H3" s="12">
-        <v>0</v>
+      <c r="G3" s="20">
+        <v>150</v>
+      </c>
+      <c r="H3" s="20">
+        <v>100</v>
       </c>
       <c r="I3" s="12">
+        <v>0</v>
+      </c>
+      <c r="J3" s="12">
         <v>2</v>
       </c>
-      <c r="J3" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="K3" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="12">
         <v>3</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="C4" s="12">
         <v>302003</v>
       </c>
-      <c r="C4" s="12">
+      <c r="D4" s="12">
         <v>303003</v>
       </c>
-      <c r="D4" s="12">
+      <c r="E4" s="12">
         <v>3</v>
       </c>
-      <c r="E4" s="12">
+      <c r="F4" s="12">
         <v>50</v>
       </c>
-      <c r="F4" s="12">
-        <v>2</v>
-      </c>
-      <c r="G4" s="12">
-        <v>2</v>
-      </c>
-      <c r="H4" s="12">
-        <v>0</v>
+      <c r="G4" s="20">
+        <v>200</v>
+      </c>
+      <c r="H4" s="20">
+        <v>150</v>
       </c>
       <c r="I4" s="12">
+        <v>0</v>
+      </c>
+      <c r="J4" s="12">
         <v>3</v>
       </c>
-      <c r="J4" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="K4" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="12">
         <v>4</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="C5" s="12">
         <v>302004</v>
       </c>
-      <c r="C5" s="12">
+      <c r="D5" s="12">
         <v>303004</v>
       </c>
-      <c r="D5" s="12">
+      <c r="E5" s="12">
         <v>3</v>
       </c>
-      <c r="E5" s="12">
+      <c r="F5" s="12">
         <v>30</v>
       </c>
-      <c r="F5" s="12">
-        <v>1</v>
-      </c>
-      <c r="G5" s="12">
-        <v>1</v>
-      </c>
-      <c r="H5" s="12">
-        <v>0</v>
+      <c r="G5" s="20">
+        <v>150</v>
+      </c>
+      <c r="H5" s="20">
+        <v>100</v>
       </c>
       <c r="I5" s="12">
+        <v>0</v>
+      </c>
+      <c r="J5" s="12">
         <v>4</v>
       </c>
-      <c r="J5" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="K5" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="12">
         <v>5</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="C6" s="12">
         <v>302005</v>
       </c>
-      <c r="C6" s="12">
+      <c r="D6" s="12">
         <v>303005</v>
       </c>
-      <c r="D6" s="12">
+      <c r="E6" s="12">
         <v>2</v>
       </c>
-      <c r="E6" s="12">
+      <c r="F6" s="12">
         <v>10</v>
       </c>
-      <c r="F6" s="12">
-        <v>1</v>
-      </c>
-      <c r="G6" s="12">
-        <v>1</v>
-      </c>
-      <c r="H6" s="12">
-        <v>0</v>
+      <c r="G6" s="20">
+        <v>100</v>
+      </c>
+      <c r="H6" s="20">
+        <v>50</v>
       </c>
       <c r="I6" s="12">
+        <v>0</v>
+      </c>
+      <c r="J6" s="12">
         <v>5</v>
       </c>
-      <c r="J6" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="K6" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="12">
         <v>6</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="C7" s="12">
         <v>302006</v>
       </c>
-      <c r="C7" s="12">
+      <c r="D7" s="12">
         <v>303006</v>
       </c>
-      <c r="D7" s="12">
+      <c r="E7" s="12">
         <v>3</v>
       </c>
-      <c r="E7" s="12">
+      <c r="F7" s="12">
         <v>100</v>
       </c>
-      <c r="F7" s="12">
-        <v>3</v>
-      </c>
-      <c r="G7" s="12">
-        <v>3</v>
-      </c>
-      <c r="H7" s="12">
-        <v>0</v>
+      <c r="G7" s="20">
+        <v>300</v>
+      </c>
+      <c r="H7" s="20">
+        <v>250</v>
       </c>
       <c r="I7" s="12">
+        <v>0</v>
+      </c>
+      <c r="J7" s="12">
         <v>6</v>
       </c>
-      <c r="J7" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="K7" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="12">
         <v>7</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="C8" s="12">
         <v>302007</v>
       </c>
-      <c r="C8" s="12">
+      <c r="D8" s="12">
         <v>303007</v>
       </c>
-      <c r="D8" s="12">
+      <c r="E8" s="12">
         <v>2</v>
       </c>
-      <c r="E8" s="12">
+      <c r="F8" s="12">
         <v>5</v>
       </c>
-      <c r="F8" s="12">
-        <v>1</v>
-      </c>
-      <c r="G8" s="12">
-        <v>1</v>
-      </c>
-      <c r="H8" s="12">
-        <v>0</v>
+      <c r="G8" s="20">
+        <v>100</v>
+      </c>
+      <c r="H8" s="20">
+        <v>50</v>
       </c>
       <c r="I8" s="12">
+        <v>0</v>
+      </c>
+      <c r="J8" s="12">
         <v>7</v>
       </c>
-      <c r="J8" s="12">
+      <c r="K8" s="12">
         <v>0</v>
       </c>
     </row>
@@ -1391,8 +1448,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G15" sqref="D15:G15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.75" defaultRowHeight="16.5"/>
@@ -1446,11 +1503,11 @@
       <c r="A2" s="20">
         <v>1</v>
       </c>
-      <c r="B2" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="C2" s="20">
-        <v>0</v>
+      <c r="B2" s="22">
+        <v>1</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>140</v>
       </c>
       <c r="D2" s="20" t="s">
         <v>121</v>
@@ -1478,11 +1535,11 @@
       <c r="A3" s="20">
         <v>2</v>
       </c>
-      <c r="B3" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="C3" s="20">
-        <v>0</v>
+      <c r="B3" s="22">
+        <v>2</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>140</v>
       </c>
       <c r="D3" s="20" t="s">
         <v>121</v>
@@ -1510,11 +1567,11 @@
       <c r="A4" s="20">
         <v>3</v>
       </c>
-      <c r="B4" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="C4" s="20">
-        <v>0</v>
+      <c r="B4" s="22">
+        <v>3</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>141</v>
       </c>
       <c r="D4" s="20" t="s">
         <v>121</v>
@@ -1542,11 +1599,11 @@
       <c r="A5" s="20">
         <v>4</v>
       </c>
-      <c r="B5" s="20" t="s">
-        <v>130</v>
+      <c r="B5" s="22">
+        <v>4</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D5" s="20" t="s">
         <v>121</v>
@@ -1574,11 +1631,11 @@
       <c r="A6" s="20">
         <v>5</v>
       </c>
-      <c r="B6" s="20" t="s">
-        <v>132</v>
-      </c>
-      <c r="C6" s="20">
-        <v>2</v>
+      <c r="B6" s="22">
+        <v>5</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>142</v>
       </c>
       <c r="D6" s="20" t="s">
         <v>121</v>
@@ -1606,11 +1663,11 @@
       <c r="A7" s="20">
         <v>6</v>
       </c>
-      <c r="B7" s="20" t="s">
-        <v>133</v>
+      <c r="B7" s="22">
+        <v>6</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D7" s="20" t="s">
         <v>121</v>
@@ -1638,11 +1695,11 @@
       <c r="A8" s="20">
         <v>7</v>
       </c>
-      <c r="B8" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="C8" s="20">
-        <v>0</v>
+      <c r="B8" s="22">
+        <v>7</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>141</v>
       </c>
       <c r="D8" s="20" t="s">
         <v>121</v>
@@ -1669,6 +1726,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1676,15 +1734,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O10"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I4" sqref="I4:I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.75" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="15.75" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="5" style="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.25" style="17" customWidth="1"/>
-    <col min="3" max="3" width="12.75" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.625" style="17" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.125" style="17" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.625" style="17" bestFit="1" customWidth="1"/>
@@ -1699,7 +1757,7 @@
     <col min="16" max="16384" width="15.75" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" ht="15.75">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -1707,7 +1765,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="D1" s="16" t="s">
         <v>0</v>
@@ -1737,16 +1795,16 @@
         <v>0</v>
       </c>
       <c r="M1" s="16" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="N1" s="16" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="O1" s="16" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="15.75">
       <c r="A2" s="18" t="s">
         <v>2</v>
       </c>
@@ -1754,7 +1812,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>3</v>
@@ -1784,16 +1842,16 @@
         <v>11</v>
       </c>
       <c r="M2" s="18" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="N2" s="18" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="O2" s="18" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="15.75">
       <c r="A3" s="19" t="s">
         <v>12</v>
       </c>
@@ -1801,7 +1859,7 @@
         <v>76</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="D3" s="19" t="s">
         <v>14</v>
@@ -1831,23 +1889,25 @@
         <v>22</v>
       </c>
       <c r="M3" s="19" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="N3" s="19" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="O3" s="19" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="15.75">
       <c r="A4" s="20">
         <v>1</v>
       </c>
       <c r="B4" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="C4" s="20"/>
+      <c r="C4" s="12">
+        <v>0</v>
+      </c>
       <c r="D4" s="20">
         <f>A4+302000</f>
         <v>302001</v>
@@ -1887,7 +1947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" ht="15.75">
       <c r="A5" s="20">
         <f>A4+1</f>
         <v>2</v>
@@ -1895,13 +1955,15 @@
       <c r="B5" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="C5" s="20"/>
+      <c r="C5" s="12">
+        <v>0</v>
+      </c>
       <c r="D5" s="20">
-        <f t="shared" ref="D5:D10" si="0">A5+302000</f>
+        <f>A5+302000</f>
         <v>302002</v>
       </c>
       <c r="E5" s="20">
-        <f t="shared" ref="E5:E10" si="1">D5+1000</f>
+        <f t="shared" ref="E5:E10" si="0">D5+1000</f>
         <v>303002</v>
       </c>
       <c r="F5" s="20">
@@ -1935,21 +1997,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" ht="15.75">
       <c r="A6" s="20">
-        <f t="shared" ref="A6:A7" si="2">A5+1</f>
+        <f t="shared" ref="A6:A7" si="1">A5+1</f>
         <v>3</v>
       </c>
       <c r="B6" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="C6" s="20"/>
+      <c r="C6" s="12">
+        <v>0</v>
+      </c>
       <c r="D6" s="20">
+        <f>A6+302000</f>
+        <v>302003</v>
+      </c>
+      <c r="E6" s="20">
         <f t="shared" si="0"/>
-        <v>302003</v>
-      </c>
-      <c r="E6" s="20">
-        <f t="shared" si="1"/>
         <v>303003</v>
       </c>
       <c r="F6" s="20">
@@ -1983,21 +2047,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" ht="15.75">
       <c r="A7" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="B7" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="C7" s="20"/>
+      <c r="C7" s="12">
+        <v>0</v>
+      </c>
       <c r="D7" s="20">
+        <f>A7+302000</f>
+        <v>302004</v>
+      </c>
+      <c r="E7" s="20">
         <f t="shared" si="0"/>
-        <v>302004</v>
-      </c>
-      <c r="E7" s="20">
-        <f t="shared" si="1"/>
         <v>303004</v>
       </c>
       <c r="F7" s="20">
@@ -2031,20 +2097,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" ht="15.75">
       <c r="A8" s="20">
         <v>5</v>
       </c>
       <c r="B8" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="C8" s="20"/>
+      <c r="C8" s="12">
+        <v>0</v>
+      </c>
       <c r="D8" s="20">
-        <f t="shared" ref="D8" si="3">A8+302000</f>
+        <f>A8+302000</f>
         <v>302005</v>
       </c>
       <c r="E8" s="20">
-        <f t="shared" ref="E8" si="4">D8+1000</f>
+        <f t="shared" ref="E8" si="2">D8+1000</f>
         <v>303005</v>
       </c>
       <c r="F8" s="20">
@@ -2078,20 +2146,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" ht="15.75">
       <c r="A9" s="20">
         <v>6</v>
       </c>
       <c r="B9" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="C9" s="20"/>
+      <c r="C9" s="12">
+        <v>0</v>
+      </c>
       <c r="D9" s="20">
+        <f>A9+302000</f>
+        <v>302006</v>
+      </c>
+      <c r="E9" s="20">
         <f t="shared" si="0"/>
-        <v>302006</v>
-      </c>
-      <c r="E9" s="20">
-        <f t="shared" si="1"/>
         <v>303006</v>
       </c>
       <c r="F9" s="20">
@@ -2125,20 +2195,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" ht="15.75">
       <c r="A10" s="20">
         <v>7</v>
       </c>
       <c r="B10" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="C10" s="20"/>
+      <c r="C10" s="12">
+        <v>0</v>
+      </c>
       <c r="D10" s="20">
+        <f>A10+302000</f>
+        <v>302007</v>
+      </c>
+      <c r="E10" s="20">
         <f t="shared" si="0"/>
-        <v>302007</v>
-      </c>
-      <c r="E10" s="20">
-        <f t="shared" si="1"/>
         <v>303007</v>
       </c>
       <c r="F10" s="20">
@@ -2184,7 +2256,7 @@
   <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24:D25"/>
+      <selection activeCell="C4" sqref="C4:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.125" defaultRowHeight="15.75"/>
@@ -2702,10 +2774,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.375" defaultRowHeight="13.5"/>
@@ -2825,16 +2897,16 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>0</v>
+        <v>146</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>3</v>
+        <v>144</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>14</v>
+        <v>148</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>39</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2842,83 +2914,83 @@
         <v>0</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C13" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="21" t="s">
+      <c r="D13" s="21" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="54">
-      <c r="A13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="2" t="s">
+    <row r="14" spans="1:4" ht="54">
+      <c r="A14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D14" s="11" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="2" t="s">
+    <row r="15" spans="1:4">
+      <c r="A15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D15" s="11" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="27">
-      <c r="A15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" s="2" t="s">
+    <row r="16" spans="1:4" ht="27">
+      <c r="A16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C16" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="11" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="54">
-      <c r="A16" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" s="2" t="s">
+      <c r="D16" s="11" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="54">
+      <c r="A17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C17" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="21" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="27">
-      <c r="A17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>43</v>
+      <c r="D17" s="21" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="27">
@@ -2926,13 +2998,13 @@
         <v>0</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="27">
@@ -2940,147 +3012,147 @@
         <v>0</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="27">
+      <c r="A20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C20" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D20" s="11" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="13" t="s">
+    <row r="25" spans="1:4">
+      <c r="A25" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="14" t="s">
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="B26" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="14" t="s">
+      <c r="C26" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D25" s="14" t="s">
+      <c r="D26" s="14" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" s="2" t="s">
+    <row r="27" spans="1:4">
+      <c r="A27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C27" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="15" t="s">
+      <c r="D27" s="15" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="94.5">
-      <c r="A27" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B27" s="2" t="s">
+    <row r="28" spans="1:4" ht="94.5">
+      <c r="A28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C28" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="15" t="s">
+      <c r="D28" s="15" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="135">
-      <c r="A28" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B28" s="2" t="s">
+    <row r="29" spans="1:4" ht="135">
+      <c r="A29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C29" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="15" t="s">
+      <c r="D29" s="15" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B29" s="2" t="s">
+    <row r="30" spans="1:4">
+      <c r="A30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C30" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="15" t="s">
+      <c r="D30" s="15" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="40.5">
-      <c r="A30" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B30" s="2" t="s">
+    <row r="31" spans="1:4" ht="40.5">
+      <c r="A31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C31" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D30" s="15" t="s">
+      <c r="D31" s="15" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="27">
-      <c r="A31" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B31" s="2" t="s">
+    <row r="32" spans="1:4" ht="27">
+      <c r="A32" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C32" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D31" s="15" t="s">
+      <c r="D32" s="15" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="40.5">
-      <c r="A32" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B32" s="2" t="s">
+    <row r="33" spans="1:4" ht="40.5">
+      <c r="A33" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C33" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D32" s="15" t="s">
+      <c r="D33" s="15" t="s">
         <v>72</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="81">
-      <c r="A33" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D33" s="15" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="81">
@@ -3088,26 +3160,40 @@
         <v>0</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="81">
+      <c r="A35" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C35" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D34" s="15" t="s">
+      <c r="D35" s="15" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B35" s="2" t="s">
+    <row r="36" spans="1:4">
+      <c r="A36" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C36" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D35" s="10" t="s">
+      <c r="D36" s="10" t="s">
         <v>75</v>
       </c>
     </row>

--- a/Assets/Excel/003_Weapon.xlsx
+++ b/Assets/Excel/003_Weapon.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="157">
   <si>
     <t>int</t>
   </si>
@@ -581,24 +581,26 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>gun5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>gun2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>gun3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>gun1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>gun4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>gun01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gun02</t>
+  </si>
+  <si>
+    <t>gun03</t>
+  </si>
+  <si>
+    <t>gun04</t>
+  </si>
+  <si>
+    <t>gun05</t>
+  </si>
+  <si>
+    <t>gun06</t>
+  </si>
+  <si>
+    <t>gun07</t>
   </si>
 </sst>
 </file>
@@ -1139,7 +1141,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5" defaultRowHeight="16.5"/>
@@ -1337,7 +1339,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C6" s="12">
         <v>302005</v>
@@ -1372,7 +1374,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C7" s="12">
         <v>302006</v>
@@ -1407,7 +1409,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C8" s="12">
         <v>302007</v>
@@ -1909,7 +1911,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="20">
-        <f>A4+302000</f>
+        <f t="shared" ref="D4:D10" si="0">A4+302000</f>
         <v>302001</v>
       </c>
       <c r="E4" s="20">
@@ -1959,11 +1961,11 @@
         <v>0</v>
       </c>
       <c r="D5" s="20">
-        <f>A5+302000</f>
+        <f t="shared" si="0"/>
         <v>302002</v>
       </c>
       <c r="E5" s="20">
-        <f t="shared" ref="E5:E10" si="0">D5+1000</f>
+        <f t="shared" ref="E5:E10" si="1">D5+1000</f>
         <v>303002</v>
       </c>
       <c r="F5" s="20">
@@ -1999,7 +2001,7 @@
     </row>
     <row r="6" spans="1:15" ht="15.75">
       <c r="A6" s="20">
-        <f t="shared" ref="A6:A7" si="1">A5+1</f>
+        <f t="shared" ref="A6:A7" si="2">A5+1</f>
         <v>3</v>
       </c>
       <c r="B6" s="20" t="s">
@@ -2009,11 +2011,11 @@
         <v>0</v>
       </c>
       <c r="D6" s="20">
-        <f>A6+302000</f>
+        <f t="shared" si="0"/>
         <v>302003</v>
       </c>
       <c r="E6" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>303003</v>
       </c>
       <c r="F6" s="20">
@@ -2049,7 +2051,7 @@
     </row>
     <row r="7" spans="1:15" ht="15.75">
       <c r="A7" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="B7" s="20" t="s">
@@ -2059,11 +2061,11 @@
         <v>0</v>
       </c>
       <c r="D7" s="20">
-        <f>A7+302000</f>
+        <f t="shared" si="0"/>
         <v>302004</v>
       </c>
       <c r="E7" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>303004</v>
       </c>
       <c r="F7" s="20">
@@ -2108,11 +2110,11 @@
         <v>0</v>
       </c>
       <c r="D8" s="20">
-        <f>A8+302000</f>
+        <f t="shared" si="0"/>
         <v>302005</v>
       </c>
       <c r="E8" s="20">
-        <f t="shared" ref="E8" si="2">D8+1000</f>
+        <f t="shared" ref="E8" si="3">D8+1000</f>
         <v>303005</v>
       </c>
       <c r="F8" s="20">
@@ -2157,11 +2159,11 @@
         <v>0</v>
       </c>
       <c r="D9" s="20">
-        <f>A9+302000</f>
+        <f t="shared" si="0"/>
         <v>302006</v>
       </c>
       <c r="E9" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>303006</v>
       </c>
       <c r="F9" s="20">
@@ -2206,11 +2208,11 @@
         <v>0</v>
       </c>
       <c r="D10" s="20">
-        <f>A10+302000</f>
+        <f t="shared" si="0"/>
         <v>302007</v>
       </c>
       <c r="E10" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>303007</v>
       </c>
       <c r="F10" s="20">

--- a/Assets/Excel/003_Weapon.xlsx
+++ b/Assets/Excel/003_Weapon.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="153">
   <si>
     <t>int</t>
   </si>
@@ -589,18 +589,6 @@
   </si>
   <si>
     <t>gun03</t>
-  </si>
-  <si>
-    <t>gun04</t>
-  </si>
-  <si>
-    <t>gun05</t>
-  </si>
-  <si>
-    <t>gun06</t>
-  </si>
-  <si>
-    <t>gun07</t>
   </si>
 </sst>
 </file>
@@ -1141,7 +1129,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5" defaultRowHeight="16.5"/>
@@ -1304,7 +1292,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C5" s="12">
         <v>302004</v>
@@ -1339,7 +1327,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C6" s="12">
         <v>302005</v>
@@ -1374,7 +1362,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C7" s="12">
         <v>302006</v>
@@ -1409,7 +1397,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C8" s="12">
         <v>302007</v>

--- a/Assets/Excel/003_Weapon.xlsx
+++ b/Assets/Excel/003_Weapon.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="153">
   <si>
     <t>int</t>
   </si>
@@ -1126,23 +1126,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5" style="26" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5" style="26" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.625" bestFit="1" customWidth="1"/>
   </cols>
@@ -1254,7 +1254,7 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="12">
-        <v>3</v>
+        <v>101</v>
       </c>
       <c r="B4" s="25" t="s">
         <v>152</v>
@@ -1266,13 +1266,13 @@
         <v>303003</v>
       </c>
       <c r="E4" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4" s="12">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="G4" s="20">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H4" s="20">
         <v>150</v>
@@ -1281,7 +1281,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K4" s="12">
         <v>0</v>
@@ -1289,7 +1289,7 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="12">
-        <v>4</v>
+        <v>102</v>
       </c>
       <c r="B5" s="25" t="s">
         <v>152</v>
@@ -1301,22 +1301,22 @@
         <v>303004</v>
       </c>
       <c r="E5" s="12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5" s="12">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="G5" s="20">
+        <v>100</v>
+      </c>
+      <c r="H5" s="20">
         <v>150</v>
       </c>
-      <c r="H5" s="20">
-        <v>100</v>
-      </c>
       <c r="I5" s="12">
         <v>0</v>
       </c>
       <c r="J5" s="12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K5" s="12">
         <v>0</v>
@@ -1324,7 +1324,7 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="12">
-        <v>5</v>
+        <v>103</v>
       </c>
       <c r="B6" s="25" t="s">
         <v>152</v>
@@ -1336,22 +1336,22 @@
         <v>303005</v>
       </c>
       <c r="E6" s="12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6" s="12">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G6" s="20">
         <v>100</v>
       </c>
       <c r="H6" s="20">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="I6" s="12">
         <v>0</v>
       </c>
       <c r="J6" s="12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K6" s="12">
         <v>0</v>
@@ -1359,7 +1359,7 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="12">
-        <v>6</v>
+        <v>104</v>
       </c>
       <c r="B7" s="25" t="s">
         <v>152</v>
@@ -1371,22 +1371,22 @@
         <v>303006</v>
       </c>
       <c r="E7" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7" s="12">
+        <v>16</v>
+      </c>
+      <c r="G7" s="20">
         <v>100</v>
       </c>
-      <c r="G7" s="20">
-        <v>300</v>
-      </c>
       <c r="H7" s="20">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="I7" s="12">
         <v>0</v>
       </c>
       <c r="J7" s="12">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K7" s="12">
         <v>0</v>
@@ -1394,7 +1394,7 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="12">
-        <v>7</v>
+        <v>105</v>
       </c>
       <c r="B8" s="25" t="s">
         <v>152</v>
@@ -1409,21 +1409,196 @@
         <v>2</v>
       </c>
       <c r="F8" s="12">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="G8" s="20">
         <v>100</v>
       </c>
       <c r="H8" s="20">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="I8" s="12">
         <v>0</v>
       </c>
       <c r="J8" s="12">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K8" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="12">
+        <v>106</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="C9" s="12">
+        <v>302008</v>
+      </c>
+      <c r="D9" s="12">
+        <v>303008</v>
+      </c>
+      <c r="E9" s="12">
+        <v>3</v>
+      </c>
+      <c r="F9" s="12">
+        <v>20</v>
+      </c>
+      <c r="G9" s="20">
+        <v>100</v>
+      </c>
+      <c r="H9" s="20">
+        <v>150</v>
+      </c>
+      <c r="I9" s="12">
+        <v>0</v>
+      </c>
+      <c r="J9" s="12">
+        <v>6</v>
+      </c>
+      <c r="K9" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="12">
+        <v>107</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="C10" s="12">
+        <v>302009</v>
+      </c>
+      <c r="D10" s="12">
+        <v>303009</v>
+      </c>
+      <c r="E10" s="12">
+        <v>1</v>
+      </c>
+      <c r="F10" s="12">
+        <v>22</v>
+      </c>
+      <c r="G10" s="20">
+        <v>100</v>
+      </c>
+      <c r="H10" s="20">
+        <v>150</v>
+      </c>
+      <c r="I10" s="12">
+        <v>0</v>
+      </c>
+      <c r="J10" s="12">
+        <v>8</v>
+      </c>
+      <c r="K10" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="12">
+        <v>108</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="C11" s="12">
+        <v>302010</v>
+      </c>
+      <c r="D11" s="12">
+        <v>303010</v>
+      </c>
+      <c r="E11" s="12">
+        <v>2</v>
+      </c>
+      <c r="F11" s="12">
+        <v>24</v>
+      </c>
+      <c r="G11" s="20">
+        <v>100</v>
+      </c>
+      <c r="H11" s="20">
+        <v>150</v>
+      </c>
+      <c r="I11" s="12">
+        <v>0</v>
+      </c>
+      <c r="J11" s="12">
+        <v>9</v>
+      </c>
+      <c r="K11" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="12">
+        <v>109</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="C12" s="12">
+        <v>302011</v>
+      </c>
+      <c r="D12" s="12">
+        <v>303011</v>
+      </c>
+      <c r="E12" s="12">
+        <v>3</v>
+      </c>
+      <c r="F12" s="12">
+        <v>26</v>
+      </c>
+      <c r="G12" s="20">
+        <v>100</v>
+      </c>
+      <c r="H12" s="20">
+        <v>150</v>
+      </c>
+      <c r="I12" s="12">
+        <v>0</v>
+      </c>
+      <c r="J12" s="12">
+        <v>10</v>
+      </c>
+      <c r="K12" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="12">
+        <v>110</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="C13" s="12">
+        <v>302012</v>
+      </c>
+      <c r="D13" s="12">
+        <v>303012</v>
+      </c>
+      <c r="E13" s="12">
+        <v>1</v>
+      </c>
+      <c r="F13" s="12">
+        <v>30</v>
+      </c>
+      <c r="G13" s="20">
+        <v>100</v>
+      </c>
+      <c r="H13" s="20">
+        <v>100</v>
+      </c>
+      <c r="I13" s="12">
+        <v>0</v>
+      </c>
+      <c r="J13" s="12">
+        <v>11</v>
+      </c>
+      <c r="K13" s="12">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Excel/003_Weapon.xlsx
+++ b/Assets/Excel/003_Weapon.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="WeaponDataInUnity" sheetId="4" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="135">
   <si>
     <t>int</t>
   </si>
@@ -265,330 +265,258 @@
 100=1秒、10=0.1秒</t>
   </si>
   <si>
+    <t>0=無
+1=無
+2=填寫秒數
+3=目標幾次
+4=命中幾個人
+5=格子距離</t>
+  </si>
+  <si>
+    <t>讀取音效表播放ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>備註</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>手槍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>機槍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>狙擊槍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>備註</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>備註</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>手槍子彈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>機槍子彈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>狙擊槍子彈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>散彈槍子彈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>散彈槍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分裂子彈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>拋物線子彈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>彈射子彈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不可抵銷</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可抵消</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>抵擋幾發子彈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>備註</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>無，超出範圍後</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>飛行多久消失</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>抵達指定格子後</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>抵達目標 (命中目標)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Projectile</t>
+  </si>
+  <si>
+    <t>s_ProjectilePrefab</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>拋射槍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>彈跳槍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分裂槍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>30,3</t>
+  </si>
+  <si>
+    <t>3,1</t>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>解鎖武器條件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>n_UnockParam</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>n_Unlcoktype</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>解鎖參數</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>n_Display</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否顯示</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>設定攻擊頻率 (百分位來顯示，100=1秒)
+目前是秒數/次數</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>設定攻擊頻率上限  (百分位來顯示，100=1秒)
+目前是秒數/次數
+有一些道具是提升攻擊頻率，所以要設一個上限值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_WeaponTextureName</t>
+  </si>
+  <si>
+    <t>s_WeaponTextureName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器圖片名稱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_WeaponTextureName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器圖片名稱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>顯示介面上的武器圖片</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gun01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gun02</t>
+  </si>
+  <si>
+    <t>gun03</t>
+  </si>
+  <si>
+    <t>參數說明</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>類型說明</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>0=無，超出範圍後 
 1=抵達目標 
 2=秒數 
 3=擊中目標幾次 
 4=命中幾個人後結束 
 5=抵達指定格子後</t>
-  </si>
-  <si>
-    <t>0=無
-1=無
-2=填寫秒數
-3=目標幾次
-4=命中幾個人
-5=格子距離</t>
-  </si>
-  <si>
-    <t>讀取音效表播放ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>備註</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>手槍</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>機槍</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>狙擊槍</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>備註</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>備註</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>手槍子彈</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>機槍子彈</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>狙擊槍子彈</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>散彈槍子彈</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>散彈槍</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>飛行方式</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>直線</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>貫通</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>直線</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>散射</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>分裂子彈</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>分裂</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>拋物線子彈</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>拋射</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>彈射子彈</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>彈射</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>參數意思</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>填寫角色前方散彈發射角度、填寫發射範圍格數</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>30,3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>命中後分裂幾顆，分裂的子彈會自動找敵人</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.投射物落地距離自己的位置直線多遠
-2.擴散範圍幾格 (按照落地點中心上下左右單格)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>不可抵銷</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>可抵消</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>參數</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>抵擋幾發子彈</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>投射物類型意思</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>備註</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>無，超出範圍後</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>飛行多久消失</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>擊中目標幾次</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>抵達指定格子後</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>命中幾個人後結束 (彈射用)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>抵達目標 (命中目標)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Projectile</t>
-  </si>
-  <si>
-    <t>s_ProjectilePrefab</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>拋射槍</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>彈跳槍</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>分裂槍</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>30,3</t>
-  </si>
-  <si>
-    <t>3,1</t>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>解鎖武器條件</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>n_UnockParam</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>n_Unlcoktype</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>解鎖參數</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>n_Display</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否顯示</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>設定攻擊頻率 (百分位來顯示，100=1秒)
-目前是秒數/次數</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>設定攻擊頻率上限  (百分位來顯示，100=1秒)
-目前是秒數/次數
-有一些道具是提升攻擊頻率，所以要設一個上限值</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>s_WeaponTextureName</t>
-  </si>
-  <si>
-    <t>s_WeaponTextureName</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>武器圖片名稱</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>s_WeaponTextureName</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>武器圖片名稱</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>顯示介面上的武器圖片</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>gun01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>gun02</t>
-  </si>
-  <si>
-    <t>gun03</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -662,7 +590,7 @@
       <charset val="136"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -703,6 +631,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF002060"/>
         <bgColor rgb="FF000080"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.34998626667073579"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -747,7 +681,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -809,9 +743,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -821,6 +752,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -1128,14 +1066,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="5.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5" style="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5" style="25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.625" bestFit="1" customWidth="1"/>
@@ -1152,7 +1090,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="C1" s="18" t="s">
         <v>3</v>
@@ -1186,14 +1124,14 @@
       <c r="A2" s="12">
         <v>1</v>
       </c>
-      <c r="B2" s="25" t="s">
-        <v>150</v>
+      <c r="B2" s="24" t="s">
+        <v>129</v>
       </c>
       <c r="C2" s="12">
-        <v>302001</v>
+        <v>30201</v>
       </c>
       <c r="D2" s="12">
-        <v>303001</v>
+        <v>30301</v>
       </c>
       <c r="E2" s="12">
         <v>1</v>
@@ -1221,14 +1159,14 @@
       <c r="A3" s="12">
         <v>2</v>
       </c>
-      <c r="B3" s="25" t="s">
-        <v>151</v>
+      <c r="B3" s="24" t="s">
+        <v>130</v>
       </c>
       <c r="C3" s="12">
-        <v>302002</v>
+        <v>30202</v>
       </c>
       <c r="D3" s="12">
-        <v>303002</v>
+        <v>30302</v>
       </c>
       <c r="E3" s="12">
         <v>2</v>
@@ -1256,14 +1194,14 @@
       <c r="A4" s="12">
         <v>101</v>
       </c>
-      <c r="B4" s="25" t="s">
-        <v>152</v>
+      <c r="B4" s="24" t="s">
+        <v>131</v>
       </c>
       <c r="C4" s="12">
-        <v>302003</v>
+        <v>30203</v>
       </c>
       <c r="D4" s="12">
-        <v>303003</v>
+        <v>30303</v>
       </c>
       <c r="E4" s="12">
         <v>1</v>
@@ -1291,14 +1229,14 @@
       <c r="A5" s="12">
         <v>102</v>
       </c>
-      <c r="B5" s="25" t="s">
-        <v>152</v>
+      <c r="B5" s="24" t="s">
+        <v>131</v>
       </c>
       <c r="C5" s="12">
-        <v>302004</v>
+        <v>30204</v>
       </c>
       <c r="D5" s="12">
-        <v>303004</v>
+        <v>30304</v>
       </c>
       <c r="E5" s="12">
         <v>2</v>
@@ -1326,14 +1264,14 @@
       <c r="A6" s="12">
         <v>103</v>
       </c>
-      <c r="B6" s="25" t="s">
-        <v>152</v>
+      <c r="B6" s="24" t="s">
+        <v>131</v>
       </c>
       <c r="C6" s="12">
-        <v>302005</v>
+        <v>30205</v>
       </c>
       <c r="D6" s="12">
-        <v>303005</v>
+        <v>30305</v>
       </c>
       <c r="E6" s="12">
         <v>3</v>
@@ -1361,14 +1299,14 @@
       <c r="A7" s="12">
         <v>104</v>
       </c>
-      <c r="B7" s="25" t="s">
-        <v>152</v>
+      <c r="B7" s="24" t="s">
+        <v>131</v>
       </c>
       <c r="C7" s="12">
-        <v>302006</v>
+        <v>30201</v>
       </c>
       <c r="D7" s="12">
-        <v>303006</v>
+        <v>30306</v>
       </c>
       <c r="E7" s="12">
         <v>1</v>
@@ -1396,14 +1334,14 @@
       <c r="A8" s="12">
         <v>105</v>
       </c>
-      <c r="B8" s="25" t="s">
-        <v>152</v>
+      <c r="B8" s="24" t="s">
+        <v>131</v>
       </c>
       <c r="C8" s="12">
-        <v>302007</v>
+        <v>30202</v>
       </c>
       <c r="D8" s="12">
-        <v>303007</v>
+        <v>30307</v>
       </c>
       <c r="E8" s="12">
         <v>2</v>
@@ -1431,14 +1369,14 @@
       <c r="A9" s="12">
         <v>106</v>
       </c>
-      <c r="B9" s="25" t="s">
-        <v>152</v>
+      <c r="B9" s="24" t="s">
+        <v>131</v>
       </c>
       <c r="C9" s="12">
-        <v>302008</v>
+        <v>30203</v>
       </c>
       <c r="D9" s="12">
-        <v>303008</v>
+        <v>30308</v>
       </c>
       <c r="E9" s="12">
         <v>3</v>
@@ -1466,14 +1404,14 @@
       <c r="A10" s="12">
         <v>107</v>
       </c>
-      <c r="B10" s="25" t="s">
-        <v>152</v>
+      <c r="B10" s="24" t="s">
+        <v>131</v>
       </c>
       <c r="C10" s="12">
-        <v>302009</v>
+        <v>30204</v>
       </c>
       <c r="D10" s="12">
-        <v>303009</v>
+        <v>30309</v>
       </c>
       <c r="E10" s="12">
         <v>1</v>
@@ -1501,14 +1439,14 @@
       <c r="A11" s="12">
         <v>108</v>
       </c>
-      <c r="B11" s="25" t="s">
-        <v>152</v>
+      <c r="B11" s="24" t="s">
+        <v>131</v>
       </c>
       <c r="C11" s="12">
-        <v>302010</v>
+        <v>30205</v>
       </c>
       <c r="D11" s="12">
-        <v>303010</v>
+        <v>30310</v>
       </c>
       <c r="E11" s="12">
         <v>2</v>
@@ -1536,14 +1474,14 @@
       <c r="A12" s="12">
         <v>109</v>
       </c>
-      <c r="B12" s="25" t="s">
-        <v>152</v>
+      <c r="B12" s="24" t="s">
+        <v>131</v>
       </c>
       <c r="C12" s="12">
-        <v>302011</v>
+        <v>30201</v>
       </c>
       <c r="D12" s="12">
-        <v>303011</v>
+        <v>30311</v>
       </c>
       <c r="E12" s="12">
         <v>3</v>
@@ -1571,14 +1509,14 @@
       <c r="A13" s="12">
         <v>110</v>
       </c>
-      <c r="B13" s="25" t="s">
-        <v>152</v>
+      <c r="B13" s="24" t="s">
+        <v>131</v>
       </c>
       <c r="C13" s="12">
-        <v>302012</v>
+        <v>30202</v>
       </c>
       <c r="D13" s="12">
-        <v>303012</v>
+        <v>30312</v>
       </c>
       <c r="E13" s="12">
         <v>1</v>
@@ -1614,22 +1552,22 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D51" sqref="D51:D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.75" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="5" style="24" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.25" style="24" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.625" style="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.25" style="24" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.125" style="24" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.875" style="24" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.75" style="24" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.125" style="24" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="27.125" style="24" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.625" style="24" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="17.75" style="24"/>
+    <col min="1" max="1" width="5" style="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.25" style="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.625" style="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.25" style="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.125" style="23" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.875" style="23" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.75" style="23" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.125" style="23" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.125" style="23" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.625" style="23" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="17.75" style="23"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="27">
@@ -1643,7 +1581,7 @@
         <v>47</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="E1" s="18" t="s">
         <v>49</v>
@@ -1672,10 +1610,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="E2" s="20">
         <v>0</v>
@@ -1704,10 +1642,10 @@
         <v>2</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="E3" s="20">
         <v>1</v>
@@ -1736,10 +1674,10 @@
         <v>3</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="E4" s="20">
         <v>0</v>
@@ -1768,10 +1706,10 @@
         <v>4</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="E5" s="20">
         <v>0</v>
@@ -1800,10 +1738,10 @@
         <v>5</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="E6" s="20">
         <v>0</v>
@@ -1832,10 +1770,10 @@
         <v>6</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="E7" s="20">
         <v>0</v>
@@ -1864,10 +1802,10 @@
         <v>7</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="E8" s="20">
         <v>0</v>
@@ -1900,7 +1838,7 @@
   <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4:I10"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.75" defaultRowHeight="16.5"/>
@@ -1930,7 +1868,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="D1" s="16" t="s">
         <v>0</v>
@@ -1960,13 +1898,13 @@
         <v>0</v>
       </c>
       <c r="M1" s="16" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="N1" s="16" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="O1" s="16" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.75">
@@ -1977,7 +1915,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>3</v>
@@ -2007,13 +1945,13 @@
         <v>11</v>
       </c>
       <c r="M2" s="18" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="N2" s="18" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="O2" s="18" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="15.75">
@@ -2021,10 +1959,10 @@
         <v>12</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="D3" s="19" t="s">
         <v>14</v>
@@ -2054,13 +1992,13 @@
         <v>22</v>
       </c>
       <c r="M3" s="19" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="N3" s="19" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="O3" s="19" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="15.75">
@@ -2068,7 +2006,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C4" s="12">
         <v>0</v>
@@ -2118,7 +2056,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C5" s="12">
         <v>0</v>
@@ -2168,7 +2106,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C6" s="12">
         <v>0</v>
@@ -2218,7 +2156,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C7" s="12">
         <v>0</v>
@@ -2267,7 +2205,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="C8" s="12">
         <v>0</v>
@@ -2316,7 +2254,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="C9" s="12">
         <v>0</v>
@@ -2365,7 +2303,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="C10" s="12">
         <v>0</v>
@@ -2418,522 +2356,399 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P10"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.125" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="9.75" style="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.625" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.25" style="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.625" style="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="38.375" style="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5" style="17" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.125" style="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.125" style="17" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.5" style="17" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.375" style="17" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.5" style="17" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18" style="17" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.875" style="17" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="23.5" style="17" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.625" style="17" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="24.125" style="17"/>
+    <col min="3" max="3" width="15.25" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.125" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.125" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.375" style="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.5" style="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18" style="17" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.875" style="17" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.5" style="17" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.625" style="17" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="24.125" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:12">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="H1" s="16" t="s">
         <v>0</v>
       </c>
       <c r="I1" s="16" t="s">
-        <v>108</v>
+        <v>0</v>
       </c>
       <c r="J1" s="16" t="s">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="K1" s="16" t="s">
-        <v>108</v>
+        <v>0</v>
       </c>
       <c r="L1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="M1" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="N1" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="O1" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="P1" s="16" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16">
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="18" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>46</v>
+        <v>101</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>101</v>
+        <v>50</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>122</v>
+        <v>90</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I2" s="18" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="J2" s="18" t="s">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="K2" s="18" t="s">
-        <v>101</v>
+        <v>53</v>
       </c>
       <c r="L2" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="M2" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="N2" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="O2" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="P2" s="18" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:12">
       <c r="A3" s="19" t="s">
         <v>55</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>57</v>
+        <v>133</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>58</v>
+        <v>132</v>
       </c>
       <c r="H3" s="19" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I3" s="19" t="s">
-        <v>113</v>
+        <v>62</v>
       </c>
       <c r="J3" s="19" t="s">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="K3" s="19" t="s">
-        <v>111</v>
+        <v>63</v>
       </c>
       <c r="L3" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="M3" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="N3" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="O3" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="P3" s="19" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:12">
       <c r="A4" s="22">
         <v>1</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="C4" s="22">
-        <v>1</v>
-      </c>
-      <c r="D4" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="E4" s="22">
-        <v>0</v>
+        <v>82</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="D4" s="22">
+        <v>0</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>92</v>
       </c>
       <c r="F4" s="22">
         <v>0</v>
       </c>
-      <c r="G4" s="22" t="s">
-        <v>121</v>
+      <c r="G4" s="22">
+        <v>0</v>
       </c>
       <c r="H4" s="22">
-        <v>0</v>
-      </c>
-      <c r="I4" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="J4" s="22">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="I4" s="22">
+        <v>0</v>
+      </c>
+      <c r="J4" s="22" t="s">
+        <v>96</v>
       </c>
       <c r="K4" s="22">
         <v>0</v>
       </c>
-      <c r="L4" s="22">
-        <v>100</v>
-      </c>
-      <c r="M4" s="22">
-        <v>0</v>
-      </c>
-      <c r="N4" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="O4" s="22">
-        <v>0</v>
-      </c>
-      <c r="P4" s="22"/>
-    </row>
-    <row r="5" spans="1:16">
+      <c r="L4" s="22"/>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="22">
         <v>2</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="C5" s="22">
-        <v>2</v>
-      </c>
-      <c r="D5" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="D5" s="22">
+        <v>1</v>
+      </c>
+      <c r="E5" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="E5" s="22">
-        <v>0</v>
-      </c>
       <c r="F5" s="22">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G5" s="22" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
       <c r="H5" s="22">
+        <v>100</v>
+      </c>
+      <c r="I5" s="22">
         <v>1</v>
       </c>
-      <c r="I5" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="J5" s="22">
-        <v>3</v>
-      </c>
-      <c r="K5" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="L5" s="22">
-        <v>100</v>
-      </c>
-      <c r="M5" s="22">
-        <v>1</v>
-      </c>
-      <c r="N5" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="O5" s="22">
-        <v>0</v>
-      </c>
-      <c r="P5" s="22"/>
-    </row>
-    <row r="6" spans="1:16">
+      <c r="J5" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="K5" s="22">
+        <v>0</v>
+      </c>
+      <c r="L5" s="22"/>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="22">
         <v>3</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="C6" s="22">
-        <v>3</v>
-      </c>
-      <c r="D6" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="D6" s="22">
+        <v>0</v>
+      </c>
+      <c r="E6" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="E6" s="22">
-        <v>0</v>
-      </c>
       <c r="F6" s="22">
         <v>0</v>
       </c>
-      <c r="G6" s="22" t="s">
-        <v>121</v>
+      <c r="G6" s="22">
+        <v>0</v>
       </c>
       <c r="H6" s="22">
-        <v>0</v>
-      </c>
-      <c r="I6" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="J6" s="22">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="I6" s="22">
+        <v>2</v>
+      </c>
+      <c r="J6" s="22" t="s">
+        <v>97</v>
       </c>
       <c r="K6" s="22">
-        <v>0</v>
-      </c>
-      <c r="L6" s="22">
-        <v>100</v>
-      </c>
-      <c r="M6" s="22">
-        <v>2</v>
-      </c>
-      <c r="N6" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="O6" s="22">
         <v>50</v>
       </c>
-      <c r="P6" s="22"/>
-    </row>
-    <row r="7" spans="1:16">
+      <c r="L6" s="22"/>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="22">
         <v>4</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="C7" s="22">
-        <v>4</v>
-      </c>
-      <c r="D7" s="22" t="s">
-        <v>94</v>
+        <v>85</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="D7" s="22">
+        <v>0</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="F7" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="G7" s="22" t="s">
-        <v>121</v>
+        <v>92</v>
+      </c>
+      <c r="F7" s="22">
+        <v>0</v>
+      </c>
+      <c r="G7" s="22">
+        <v>0</v>
       </c>
       <c r="H7" s="22">
-        <v>0</v>
-      </c>
-      <c r="I7" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="J7" s="22">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="I7" s="22">
+        <v>3</v>
+      </c>
+      <c r="J7" s="22" t="s">
+        <v>98</v>
       </c>
       <c r="K7" s="22">
         <v>0</v>
       </c>
-      <c r="L7" s="22">
-        <v>100</v>
-      </c>
-      <c r="M7" s="22">
-        <v>3</v>
-      </c>
-      <c r="N7" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="O7" s="22">
-        <v>1</v>
-      </c>
-      <c r="P7" s="22"/>
-    </row>
-    <row r="8" spans="1:16">
+      <c r="L7" s="22"/>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="22">
         <v>5</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="C8" s="22">
-        <v>5</v>
-      </c>
-      <c r="D8" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="E8" s="22">
-        <v>2</v>
-      </c>
-      <c r="F8" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="G8" s="22" t="s">
-        <v>121</v>
+        <v>87</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="D8" s="22">
+        <v>0</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="F8" s="22">
+        <v>0</v>
+      </c>
+      <c r="G8" s="22">
+        <v>0</v>
       </c>
       <c r="H8" s="22">
-        <v>0</v>
-      </c>
-      <c r="I8" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="J8" s="22">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="I8" s="22">
+        <v>1</v>
+      </c>
+      <c r="J8" s="22" t="s">
+        <v>99</v>
       </c>
       <c r="K8" s="22">
         <v>0</v>
       </c>
-      <c r="L8" s="22">
-        <v>100</v>
-      </c>
-      <c r="M8" s="22">
-        <v>1</v>
-      </c>
-      <c r="N8" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="O8" s="22">
-        <v>0</v>
-      </c>
-      <c r="P8" s="22"/>
-    </row>
-    <row r="9" spans="1:16" ht="27">
+      <c r="L8" s="22"/>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="22">
         <v>6</v>
       </c>
       <c r="B9" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="D9" s="22">
+        <v>0</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="F9" s="22">
+        <v>0</v>
+      </c>
+      <c r="G9" s="22">
+        <v>0</v>
+      </c>
+      <c r="H9" s="22">
+        <v>100</v>
+      </c>
+      <c r="I9" s="22">
+        <v>2</v>
+      </c>
+      <c r="J9" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="C9" s="22">
-        <v>6</v>
-      </c>
-      <c r="D9" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="E9" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="F9" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="G9" s="22" t="s">
-        <v>121</v>
-      </c>
-      <c r="H9" s="22">
-        <v>0</v>
-      </c>
-      <c r="I9" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="J9" s="22">
-        <v>0</v>
-      </c>
       <c r="K9" s="22">
-        <v>0</v>
-      </c>
-      <c r="L9" s="22">
-        <v>100</v>
-      </c>
-      <c r="M9" s="22">
-        <v>5</v>
-      </c>
-      <c r="N9" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="O9" s="22">
-        <v>0</v>
-      </c>
-      <c r="P9" s="22"/>
-    </row>
-    <row r="10" spans="1:16">
+        <v>50</v>
+      </c>
+      <c r="L9" s="22"/>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="22">
         <v>7</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="C10" s="22">
-        <v>7</v>
-      </c>
-      <c r="D10" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="E10" s="22">
-        <v>0</v>
+        <v>89</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="D10" s="22">
+        <v>0</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>92</v>
       </c>
       <c r="F10" s="22">
         <v>0</v>
       </c>
-      <c r="G10" s="22" t="s">
-        <v>121</v>
+      <c r="G10" s="22">
+        <v>0</v>
       </c>
       <c r="H10" s="22">
-        <v>0</v>
-      </c>
-      <c r="I10" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="J10" s="22">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="I10" s="22">
+        <v>3</v>
+      </c>
+      <c r="J10" s="22" t="s">
+        <v>98</v>
       </c>
       <c r="K10" s="22">
         <v>0</v>
       </c>
-      <c r="L10" s="22">
-        <v>100</v>
-      </c>
-      <c r="M10" s="22">
-        <v>6</v>
-      </c>
-      <c r="N10" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="O10" s="22">
-        <v>3</v>
-      </c>
-      <c r="P10" s="22"/>
+      <c r="L10" s="22"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2941,8 +2756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.375" defaultRowHeight="13.5"/>
@@ -3062,16 +2877,16 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -3141,7 +2956,7 @@
         <v>18</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="54">
@@ -3155,7 +2970,7 @@
         <v>19</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="27">
@@ -3236,31 +3051,31 @@
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="94.5">
-      <c r="A28" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B28" s="2" t="s">
+    <row r="28" spans="1:4" s="28" customFormat="1" ht="94.5">
+      <c r="A28" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="D28" s="15" t="s">
+      <c r="D28" s="27" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="135">
-      <c r="A29" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B29" s="2" t="s">
+    <row r="29" spans="1:4" s="28" customFormat="1" ht="135">
+      <c r="A29" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="D29" s="15" t="s">
+      <c r="D29" s="27" t="s">
         <v>68</v>
       </c>
     </row>
@@ -3331,7 +3146,7 @@
         <v>62</v>
       </c>
       <c r="D34" s="15" t="s">
-        <v>73</v>
+        <v>134</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="81">
@@ -3345,7 +3160,7 @@
         <v>63</v>
       </c>
       <c r="D35" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -3359,7 +3174,7 @@
         <v>64</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/003_Weapon.xlsx
+++ b/Assets/Excel/003_Weapon.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="WeaponDataInUnity" sheetId="4" r:id="rId1"/>
@@ -1066,8 +1066,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3:H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5" defaultRowHeight="16.5"/>
@@ -1552,7 +1552,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D51" sqref="D51:D53"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.75" defaultRowHeight="16.5"/>
@@ -2358,7 +2358,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
